--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_143.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_143.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,684 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(46.52, 48.94)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[('0:00:14.900000', '0:00:28.900000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.300000', '0:00:04.800000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_245</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.08055555555555555</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min', 'F#:min']]</t>
-        </is>
+          <t>isophonics_57</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1228070175438596</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'D#:min', 'A#:min/F']]</t>
+          <t>[['C', 'D', 'G'], ['G', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(36.732085, 40.296348)]</t>
+          <t>[['G', 'A', 'D'], ['D', 'D/b7', 'G/3']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(8.4, 12.14)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:17.788231', '0:00:22.107142'), ('0:00:09.231677', '0:00:12.668231')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:29.965374', '0:00:34.307505'), ('0:00:32.879478', '0:00:37.291269')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1402173913043478</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2342342342342342</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'A']]</t>
+          <t>[['C:min', 'G:7', 'C:min', 'F:min', 'C:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(19.36, 21.74)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[('0:00:11.129160', '0:00:21.125350')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:41.920000', '0:00:54.160000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0826923076923077</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'B:7']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0945054945054945</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C', 'C', 'D:7/C']]</t>
+          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B'], ['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(155.208548, 161.535985)]</t>
+          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['D#:7/C#', 'G#:maj/C', 'D#:maj/A#'], ['D#:maj/A#', 'A#:7', 'D#:maj'], ['A#:7', 'D#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(253.62, 261.68)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:55.400000', '0:01:03.680000'), ('0:01:00.040000', '0:01:05.240000'), ('0:01:12.520000', '0:01:23.280000'), ('0:00:06.120000', '0:00:11.620000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:15.640000', '0:00:24.280000'), ('0:01:02.260000', '0:01:04.580000'), ('0:01:04.080000', '0:01:10.340000'), ('0:01:04.580000', '0:01:13.880000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2394775036284471</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B', 'F#', 'B', 'F#', 'B']]</t>
-        </is>
+          <t>isophonics_170</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_5</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1233870967741935</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D/5', 'A', 'D/5']]</t>
+          <t>[['D', 'F#/5', 'B:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(151.259637, 157.900544)]</t>
+          <t>[['E', 'G#', 'C#:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(31.898979, 35.463242)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:51.613644', '0:00:54.494587')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:58.063326', '0:01:03.244560')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(4.34, 17.66)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(74.12, 86.54)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:06.200000', '0:00:16.360000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:04.520000', '0:01:06.820000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1916666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(236.4, 239.98)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(7.6, 17.16)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:01:03.200000', '0:01:13.120000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:15.300000', '0:00:19.720000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3794871794871795</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(34.3, 49.84)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(74.7, 94.12)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:59.320000', '0:02:01.920000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:25.260000', '0:00:52.580000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1108870967741935</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(8.9, 10.62)]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(33.814625, 37.738798)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:03.240000', '0:01:06.800000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:21.620000', '0:00:25.320000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_192</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06186174391201885</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Eb', 'G', 'C']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4444444444444444</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C', 'E', 'A']]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(134.983968, 138.583061)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(46.529251, 52.798639)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:00.465952', '0:00:06.886543')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3645833333333334</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D/2', 'D/3', 'G', 'D', 'D/2']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B', 'B', 'E/5', 'B', 'B']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(56.75352, 74.388469)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(55.629773, 67.541609)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:01:52.240000', '0:01:57.700000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:02:00.400000', '0:02:07.200000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2003577817531306</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(40.6, 45.98)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E', 'F:min', 'D:hdim7', 'C:min', 'C#:maj', 'G#:maj/C', 'G:7', 'G#:maj'], ['C:7/A#', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(105.84, 120.5)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:02.600000', '0:00:10.700000'), ('0:01:12.880000', '0:01:20.600000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:02', '0:00:11.360000'), ('0:01:18.100000', '0:01:26.060000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C/3', 'F', 'C/3', 'F', 'C/3']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(76.585782, 79.023877)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(111.92, 115.98)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_13</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1646655231560892</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_54</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(7.02, 13.54), (8.02, 15.1)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(7.87, 14.66), (28.19, 36.12)]</t>
+          <t>[('0:00:09.240000', '0:01:48.600000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:07.140000', '0:01:47.600000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1277777777777778</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F', 'C', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_204</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_32</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G', 'C/5', 'G']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(101.849092, 108.664149)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(57.406099, 64.464965)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:43.100000', '0:00:47.740000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:39.700000', '0:00:44.020000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_202</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2660098522167488</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(5.20815, 11.03585)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(61.48, 63.58)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
